--- a/biology/Botanique/Henry_Hurd_Rusby/Henry_Hurd_Rusby.xlsx
+++ b/biology/Botanique/Henry_Hurd_Rusby/Henry_Hurd_Rusby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Hurd Rusby, né le 26 avril 1855 à Franklin Township (aujourd'hui Nutley) dans le New Jersey et mort le 18 novembre 1940, est un botaniste, pharmacien et médecin américain. C'est un personnage influent dans la promotion de la botanique économique au cours de ses 50 premières années d'existence.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rusby grandit à Franklin (aujourd'hui Nutley) dans le New Jersey et se passionne pour les plantes. À 21 ans il remporte le premier prix de l'Exposition universelle de 1876 de Philadelphie. À la même époque il fait la connaissance du docteur George Thurber, alors président de la Torrey Botanical Society. Rusby rejoint ce club en 1879 et commence à étudier la médecine à l'université de New York. En 1880 il passe 18 mois à recueillir des plantes au Texas et au Nouveau-Mexique pour le compte de la Smithsonian Institution et en 1883 il retourne dans le sud ouest des États-Unis afin d'étudier et de récolter des plantes médicinales pour la compagnie pharmaceutique Parke-Davis.
 En 1884, il obtient son diplôme de médecin et, en 1885, il entreprend un voyage de recherche de deux ans pour Parke, Davis &amp; Co., à travers l'Amérique du Sud, en explorant des régions éloignées de la Colombie, de l'Équateur, du Pérou, du Chili, de la Bolivie et du Brésil.
@@ -547,7 +561,9 @@
           <t>Publications sélectionnées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1893 : An enumeration of the plants collected in Bolivia by Miguel Bang
 1895 : Essentials of Vegetable Pharmacognosy: A Treatise on Structural Botany, Designed Especially for Pharmaceutical and Medical Students, Pharmacists and Physicians
